--- a/contratos/contratos-10-2019.xlsx
+++ b/contratos/contratos-10-2019.xlsx
@@ -1186,7 +1186,7 @@
     <t>PROVEEDOR EXTERNO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MARTINEZ FEDERICO AUGUSTO</t>
@@ -1354,7 +1354,7 @@
     <t>COURVOISIER SILVIO ROBERTO</t>
   </si>
   <si>
-    <t>EDICIONES NATIVA S.H DE ESCOBAR JORGE, MARTINEZ ALFREDO, PIZIGHINI CARLOS L Y R</t>
+    <t>EDICIONES NATIVA SH DE ESCOBAR JORGE. MARTINEZ ALFREDO. PIZIGHINI CARLOS L Y R</t>
   </si>
   <si>
     <t>EL MIERCOLES COMUNICACION Y CULTURA</t>
@@ -1432,7 +1432,7 @@
     <t>KUTTEL SILVIA YOLANDA</t>
   </si>
   <si>
-    <t>OLIVERA, FLORENCIO</t>
+    <t>OLIVERA. FLORENCIO</t>
   </si>
   <si>
     <t>SANCHEZ SUSANA BEATRIZ FRANCISCA</t>
@@ -1441,7 +1441,7 @@
     <t>SANDOVAL GRISELDA LINA</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
@@ -1459,7 +1459,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOMBA HERMANOS S.R.L.</t>
@@ -1981,7 +1981,7 @@
     <t>PREVISORA URUGUAY</t>
   </si>
   <si>
-    <t>CLERICE, MIGUEL ANGEL</t>
+    <t>CLERICE. MIGUEL ANGEL</t>
   </si>
   <si>
     <t>OCA</t>
@@ -2083,847 +2083,847 @@
     <t>17</t>
   </si>
   <si>
-    <t>58.960,00</t>
-  </si>
-  <si>
-    <t>78.000,00</t>
-  </si>
-  <si>
-    <t>80.400,00</t>
-  </si>
-  <si>
-    <t>260.700,00</t>
-  </si>
-  <si>
-    <t>30.500,00</t>
-  </si>
-  <si>
-    <t>111.747,50</t>
-  </si>
-  <si>
-    <t>182.000,00</t>
-  </si>
-  <si>
-    <t>63.200,00</t>
-  </si>
-  <si>
-    <t>282.000,00</t>
-  </si>
-  <si>
-    <t>2.995,00</t>
-  </si>
-  <si>
-    <t>19.620,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>2.158.920,00</t>
-  </si>
-  <si>
-    <t>4.480,00</t>
-  </si>
-  <si>
-    <t>34.500,00</t>
-  </si>
-  <si>
-    <t>785.532,00</t>
-  </si>
-  <si>
-    <t>589.310,00</t>
-  </si>
-  <si>
-    <t>26.450,00</t>
-  </si>
-  <si>
-    <t>6.312,00</t>
-  </si>
-  <si>
-    <t>2.650,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>575.092,83</t>
-  </si>
-  <si>
-    <t>216.299,50</t>
-  </si>
-  <si>
-    <t>168.367,65</t>
-  </si>
-  <si>
-    <t>1.024.669,45</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>211.656,00</t>
-  </si>
-  <si>
-    <t>113.345,00</t>
-  </si>
-  <si>
-    <t>38.500,00</t>
-  </si>
-  <si>
-    <t>8.742,00</t>
-  </si>
-  <si>
-    <t>108.208,00</t>
-  </si>
-  <si>
-    <t>8.147,72</t>
-  </si>
-  <si>
-    <t>96.281,50</t>
-  </si>
-  <si>
-    <t>14.381,00</t>
-  </si>
-  <si>
-    <t>156.723,06</t>
-  </si>
-  <si>
-    <t>26.600,00</t>
-  </si>
-  <si>
-    <t>17.860,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>40.600,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>54.810,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>74.790,00</t>
-  </si>
-  <si>
-    <t>9.920,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
-  </si>
-  <si>
-    <t>2.834,89</t>
-  </si>
-  <si>
-    <t>808,94</t>
-  </si>
-  <si>
-    <t>190,51</t>
-  </si>
-  <si>
-    <t>133.447,51</t>
-  </si>
-  <si>
-    <t>920,00</t>
-  </si>
-  <si>
-    <t>19.169,28</t>
-  </si>
-  <si>
-    <t>235.000,00</t>
-  </si>
-  <si>
-    <t>488.880,00</t>
-  </si>
-  <si>
-    <t>49.670,00</t>
-  </si>
-  <si>
-    <t>7.152,97</t>
-  </si>
-  <si>
-    <t>2.427,19</t>
-  </si>
-  <si>
-    <t>6.671,10</t>
-  </si>
-  <si>
-    <t>39.788,83</t>
-  </si>
-  <si>
-    <t>100.360,00</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>23.760,81</t>
-  </si>
-  <si>
-    <t>1.403,10</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>38.369,78</t>
-  </si>
-  <si>
-    <t>39.500,93</t>
-  </si>
-  <si>
-    <t>713,00</t>
-  </si>
-  <si>
-    <t>102,45</t>
-  </si>
-  <si>
-    <t>2.175,00</t>
-  </si>
-  <si>
-    <t>108,95</t>
-  </si>
-  <si>
-    <t>2.934,52</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>5.724,20</t>
-  </si>
-  <si>
-    <t>22.176,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>7.810,00</t>
-  </si>
-  <si>
-    <t>9.850,00</t>
-  </si>
-  <si>
-    <t>49.317,30</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>9.530,00</t>
-  </si>
-  <si>
-    <t>574.500,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>115.375,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>16.800,00</t>
-  </si>
-  <si>
-    <t>45.100,00</t>
-  </si>
-  <si>
-    <t>184.400,00</t>
-  </si>
-  <si>
-    <t>2.125,00</t>
-  </si>
-  <si>
-    <t>1.721,85</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>232.496,50</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>97.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>3.082,00</t>
-  </si>
-  <si>
-    <t>848,00</t>
-  </si>
-  <si>
-    <t>128.000,00</t>
-  </si>
-  <si>
-    <t>7.400,00</t>
-  </si>
-  <si>
-    <t>183.070,97</t>
-  </si>
-  <si>
-    <t>82.840,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>17.156,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>101.034,00</t>
-  </si>
-  <si>
-    <t>980,00</t>
-  </si>
-  <si>
-    <t>6.830,00</t>
-  </si>
-  <si>
-    <t>4.009,95</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>17.359,49</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>12.580,00</t>
-  </si>
-  <si>
-    <t>1.020,00</t>
-  </si>
-  <si>
-    <t>2.827,80</t>
-  </si>
-  <si>
-    <t>5.766,00</t>
-  </si>
-  <si>
-    <t>11.842,00</t>
-  </si>
-  <si>
-    <t>67.032,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>16.900,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>3.697,10</t>
-  </si>
-  <si>
-    <t>6.908,00</t>
-  </si>
-  <si>
-    <t>16.500,00</t>
-  </si>
-  <si>
-    <t>32.110,00</t>
-  </si>
-  <si>
-    <t>16.198,00</t>
-  </si>
-  <si>
-    <t>76.253,84</t>
-  </si>
-  <si>
-    <t>711,20</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>36.389,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>11.680,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>3.935,00</t>
-  </si>
-  <si>
-    <t>3.127,84</t>
-  </si>
-  <si>
-    <t>4.297,74</t>
-  </si>
-  <si>
-    <t>573,78</t>
-  </si>
-  <si>
-    <t>6.990,00</t>
-  </si>
-  <si>
-    <t>15.499,98</t>
-  </si>
-  <si>
-    <t>292.000,00</t>
-  </si>
-  <si>
-    <t>21.300,00</t>
-  </si>
-  <si>
-    <t>19.790,00</t>
-  </si>
-  <si>
-    <t>40.046,16</t>
-  </si>
-  <si>
-    <t>131.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>17.751,00</t>
-  </si>
-  <si>
-    <t>141.000,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>48.250,00</t>
-  </si>
-  <si>
-    <t>3.930,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>110.000,00</t>
-  </si>
-  <si>
-    <t>29.380,00</t>
-  </si>
-  <si>
-    <t>33.000,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>418.500,00</t>
-  </si>
-  <si>
-    <t>52.000,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>71.000,00</t>
-  </si>
-  <si>
-    <t>3.005,73</t>
-  </si>
-  <si>
-    <t>1.670,00</t>
-  </si>
-  <si>
-    <t>2.582,58</t>
-  </si>
-  <si>
-    <t>36.420,00</t>
-  </si>
-  <si>
-    <t>45.860,00</t>
-  </si>
-  <si>
-    <t>66.008,70</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>1.332,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>23.728,77</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>41.733,20</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>41.300,00</t>
-  </si>
-  <si>
-    <t>44.720,00</t>
-  </si>
-  <si>
-    <t>8.930,00</t>
-  </si>
-  <si>
-    <t>17.400,00</t>
-  </si>
-  <si>
-    <t>1.910,00</t>
-  </si>
-  <si>
-    <t>27.740,00</t>
-  </si>
-  <si>
-    <t>143.475,00</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>84,20</t>
-  </si>
-  <si>
-    <t>31.870,00</t>
-  </si>
-  <si>
-    <t>46.405,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>8.994,38</t>
-  </si>
-  <si>
-    <t>16.950,00</t>
-  </si>
-  <si>
-    <t>8.900,00</t>
-  </si>
-  <si>
-    <t>109,00</t>
-  </si>
-  <si>
-    <t>40.848,68</t>
-  </si>
-  <si>
-    <t>1.435,99</t>
-  </si>
-  <si>
-    <t>4.800,63</t>
-  </si>
-  <si>
-    <t>1.815,00</t>
-  </si>
-  <si>
-    <t>37.910,00</t>
-  </si>
-  <si>
-    <t>11.761,20</t>
-  </si>
-  <si>
-    <t>7.746,92</t>
-  </si>
-  <si>
-    <t>12.689,99</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>5.085,00</t>
-  </si>
-  <si>
-    <t>14.127,00</t>
-  </si>
-  <si>
-    <t>7.350,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>8.133,08</t>
-  </si>
-  <si>
-    <t>8.086,64</t>
-  </si>
-  <si>
-    <t>10.740,00</t>
-  </si>
-  <si>
-    <t>1.097.927,74</t>
-  </si>
-  <si>
-    <t>5.850,97</t>
-  </si>
-  <si>
-    <t>10.617,70</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>80.250,00</t>
-  </si>
-  <si>
-    <t>101.335,00</t>
-  </si>
-  <si>
-    <t>59.800,00</t>
-  </si>
-  <si>
-    <t>7.593.379,69</t>
-  </si>
-  <si>
-    <t>26.400,00</t>
-  </si>
-  <si>
-    <t>4.769.937,84</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>44.800,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>1.799.000,00</t>
-  </si>
-  <si>
-    <t>18.191,53</t>
-  </si>
-  <si>
-    <t>540.100,00</t>
-  </si>
-  <si>
-    <t>606.300,00</t>
-  </si>
-  <si>
-    <t>564.500,00</t>
-  </si>
-  <si>
-    <t>293.300,00</t>
-  </si>
-  <si>
-    <t>576.100,00</t>
-  </si>
-  <si>
-    <t>518.600,00</t>
-  </si>
-  <si>
-    <t>274.100,00</t>
-  </si>
-  <si>
-    <t>1.046.250,00</t>
-  </si>
-  <si>
-    <t>1.250.000,00</t>
-  </si>
-  <si>
-    <t>662.050,00</t>
-  </si>
-  <si>
-    <t>1.080.200,00</t>
-  </si>
-  <si>
-    <t>438.200,00</t>
-  </si>
-  <si>
-    <t>841.050,00</t>
-  </si>
-  <si>
-    <t>1.072.500,00</t>
-  </si>
-  <si>
-    <t>1.020.600,00</t>
-  </si>
-  <si>
-    <t>1.569.600,00</t>
-  </si>
-  <si>
-    <t>814.200,00</t>
-  </si>
-  <si>
-    <t>563.800,00</t>
-  </si>
-  <si>
-    <t>152.200,00</t>
-  </si>
-  <si>
-    <t>1.994.767,51</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>650.000,00</t>
-  </si>
-  <si>
-    <t>871.532,23</t>
-  </si>
-  <si>
-    <t>16.850,00</t>
-  </si>
-  <si>
-    <t>318.150,00</t>
-  </si>
-  <si>
-    <t>173.682,00</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>160.084,04</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>372.000,00</t>
-  </si>
-  <si>
-    <t>10.508,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>24.403,50</t>
-  </si>
-  <si>
-    <t>270.200,00</t>
-  </si>
-  <si>
-    <t>12.600,00</t>
-  </si>
-  <si>
-    <t>29.600,00</t>
-  </si>
-  <si>
-    <t>1.404.457,00</t>
-  </si>
-  <si>
-    <t>31.600,00</t>
-  </si>
-  <si>
-    <t>10.178,00</t>
-  </si>
-  <si>
-    <t>36.595,00</t>
-  </si>
-  <si>
-    <t>11.625,00</t>
-  </si>
-  <si>
-    <t>229.100,00</t>
-  </si>
-  <si>
-    <t>30.820,00</t>
+    <t>58960.00</t>
+  </si>
+  <si>
+    <t>78000.00</t>
+  </si>
+  <si>
+    <t>80400.00</t>
+  </si>
+  <si>
+    <t>260700.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>111747.50</t>
+  </si>
+  <si>
+    <t>182000.00</t>
+  </si>
+  <si>
+    <t>63200.00</t>
+  </si>
+  <si>
+    <t>282000.00</t>
+  </si>
+  <si>
+    <t>2995.00</t>
+  </si>
+  <si>
+    <t>19620.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>2158920.00</t>
+  </si>
+  <si>
+    <t>4480.00</t>
+  </si>
+  <si>
+    <t>34500.00</t>
+  </si>
+  <si>
+    <t>785532.00</t>
+  </si>
+  <si>
+    <t>589310.00</t>
+  </si>
+  <si>
+    <t>26450.00</t>
+  </si>
+  <si>
+    <t>6312.00</t>
+  </si>
+  <si>
+    <t>2650.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>575092.83</t>
+  </si>
+  <si>
+    <t>216299.50</t>
+  </si>
+  <si>
+    <t>168367.65</t>
+  </si>
+  <si>
+    <t>1024669.45</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>211656.00</t>
+  </si>
+  <si>
+    <t>113345.00</t>
+  </si>
+  <si>
+    <t>38500.00</t>
+  </si>
+  <si>
+    <t>8742.00</t>
+  </si>
+  <si>
+    <t>108208.00</t>
+  </si>
+  <si>
+    <t>8147.72</t>
+  </si>
+  <si>
+    <t>96281.50</t>
+  </si>
+  <si>
+    <t>14381.00</t>
+  </si>
+  <si>
+    <t>156723.06</t>
+  </si>
+  <si>
+    <t>26600.00</t>
+  </si>
+  <si>
+    <t>17860.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>40600.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>54810.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>74790.00</t>
+  </si>
+  <si>
+    <t>9920.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
+  </si>
+  <si>
+    <t>2834.89</t>
+  </si>
+  <si>
+    <t>808.94</t>
+  </si>
+  <si>
+    <t>190.51</t>
+  </si>
+  <si>
+    <t>133447.51</t>
+  </si>
+  <si>
+    <t>920.00</t>
+  </si>
+  <si>
+    <t>19169.28</t>
+  </si>
+  <si>
+    <t>235000.00</t>
+  </si>
+  <si>
+    <t>488880.00</t>
+  </si>
+  <si>
+    <t>49670.00</t>
+  </si>
+  <si>
+    <t>7152.97</t>
+  </si>
+  <si>
+    <t>2427.19</t>
+  </si>
+  <si>
+    <t>6671.10</t>
+  </si>
+  <si>
+    <t>39788.83</t>
+  </si>
+  <si>
+    <t>100360.00</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>23760.81</t>
+  </si>
+  <si>
+    <t>1403.10</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>38369.78</t>
+  </si>
+  <si>
+    <t>39500.93</t>
+  </si>
+  <si>
+    <t>713.00</t>
+  </si>
+  <si>
+    <t>102.45</t>
+  </si>
+  <si>
+    <t>2175.00</t>
+  </si>
+  <si>
+    <t>108.95</t>
+  </si>
+  <si>
+    <t>2934.52</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>5724.20</t>
+  </si>
+  <si>
+    <t>22176.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>7810.00</t>
+  </si>
+  <si>
+    <t>9850.00</t>
+  </si>
+  <si>
+    <t>49317.30</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>9530.00</t>
+  </si>
+  <si>
+    <t>574500.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>115375.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>16800.00</t>
+  </si>
+  <si>
+    <t>45100.00</t>
+  </si>
+  <si>
+    <t>184400.00</t>
+  </si>
+  <si>
+    <t>2125.00</t>
+  </si>
+  <si>
+    <t>1721.85</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>232496.50</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>97000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>3082.00</t>
+  </si>
+  <si>
+    <t>848.00</t>
+  </si>
+  <si>
+    <t>128000.00</t>
+  </si>
+  <si>
+    <t>7400.00</t>
+  </si>
+  <si>
+    <t>183070.97</t>
+  </si>
+  <si>
+    <t>82840.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>17156.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>101034.00</t>
+  </si>
+  <si>
+    <t>980.00</t>
+  </si>
+  <si>
+    <t>6830.00</t>
+  </si>
+  <si>
+    <t>4009.95</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>17359.49</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>12580.00</t>
+  </si>
+  <si>
+    <t>1020.00</t>
+  </si>
+  <si>
+    <t>2827.80</t>
+  </si>
+  <si>
+    <t>5766.00</t>
+  </si>
+  <si>
+    <t>11842.00</t>
+  </si>
+  <si>
+    <t>67032.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>16900.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>3697.10</t>
+  </si>
+  <si>
+    <t>6908.00</t>
+  </si>
+  <si>
+    <t>16500.00</t>
+  </si>
+  <si>
+    <t>32110.00</t>
+  </si>
+  <si>
+    <t>16198.00</t>
+  </si>
+  <si>
+    <t>76253.84</t>
+  </si>
+  <si>
+    <t>711.20</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>36389.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>11680.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>3935.00</t>
+  </si>
+  <si>
+    <t>3127.84</t>
+  </si>
+  <si>
+    <t>4297.74</t>
+  </si>
+  <si>
+    <t>573.78</t>
+  </si>
+  <si>
+    <t>6990.00</t>
+  </si>
+  <si>
+    <t>15499.98</t>
+  </si>
+  <si>
+    <t>292000.00</t>
+  </si>
+  <si>
+    <t>21300.00</t>
+  </si>
+  <si>
+    <t>19790.00</t>
+  </si>
+  <si>
+    <t>40046.16</t>
+  </si>
+  <si>
+    <t>131000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>17751.00</t>
+  </si>
+  <si>
+    <t>141000.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>48250.00</t>
+  </si>
+  <si>
+    <t>3930.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>110000.00</t>
+  </si>
+  <si>
+    <t>29380.00</t>
+  </si>
+  <si>
+    <t>33000.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>418500.00</t>
+  </si>
+  <si>
+    <t>52000.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>71000.00</t>
+  </si>
+  <si>
+    <t>3005.73</t>
+  </si>
+  <si>
+    <t>1670.00</t>
+  </si>
+  <si>
+    <t>2582.58</t>
+  </si>
+  <si>
+    <t>36420.00</t>
+  </si>
+  <si>
+    <t>45860.00</t>
+  </si>
+  <si>
+    <t>66008.70</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>1332.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>23728.77</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>41733.20</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>13800.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>41300.00</t>
+  </si>
+  <si>
+    <t>44720.00</t>
+  </si>
+  <si>
+    <t>8930.00</t>
+  </si>
+  <si>
+    <t>17400.00</t>
+  </si>
+  <si>
+    <t>1910.00</t>
+  </si>
+  <si>
+    <t>27740.00</t>
+  </si>
+  <si>
+    <t>143475.00</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>84.20</t>
+  </si>
+  <si>
+    <t>31870.00</t>
+  </si>
+  <si>
+    <t>46405.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>8994.38</t>
+  </si>
+  <si>
+    <t>16950.00</t>
+  </si>
+  <si>
+    <t>8900.00</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>40848.68</t>
+  </si>
+  <si>
+    <t>1435.99</t>
+  </si>
+  <si>
+    <t>4800.63</t>
+  </si>
+  <si>
+    <t>1815.00</t>
+  </si>
+  <si>
+    <t>37910.00</t>
+  </si>
+  <si>
+    <t>11761.20</t>
+  </si>
+  <si>
+    <t>7746.92</t>
+  </si>
+  <si>
+    <t>12689.99</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>5085.00</t>
+  </si>
+  <si>
+    <t>14127.00</t>
+  </si>
+  <si>
+    <t>7350.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>8133.08</t>
+  </si>
+  <si>
+    <t>8086.64</t>
+  </si>
+  <si>
+    <t>10740.00</t>
+  </si>
+  <si>
+    <t>1097927.74</t>
+  </si>
+  <si>
+    <t>5850.97</t>
+  </si>
+  <si>
+    <t>10617.70</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>80250.00</t>
+  </si>
+  <si>
+    <t>101335.00</t>
+  </si>
+  <si>
+    <t>59800.00</t>
+  </si>
+  <si>
+    <t>7593379.69</t>
+  </si>
+  <si>
+    <t>26400.00</t>
+  </si>
+  <si>
+    <t>4769937.84</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>44800.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>1799000.00</t>
+  </si>
+  <si>
+    <t>18191.53</t>
+  </si>
+  <si>
+    <t>540100.00</t>
+  </si>
+  <si>
+    <t>606300.00</t>
+  </si>
+  <si>
+    <t>564500.00</t>
+  </si>
+  <si>
+    <t>293300.00</t>
+  </si>
+  <si>
+    <t>576100.00</t>
+  </si>
+  <si>
+    <t>518600.00</t>
+  </si>
+  <si>
+    <t>274100.00</t>
+  </si>
+  <si>
+    <t>1046250.00</t>
+  </si>
+  <si>
+    <t>1250000.00</t>
+  </si>
+  <si>
+    <t>662050.00</t>
+  </si>
+  <si>
+    <t>1080200.00</t>
+  </si>
+  <si>
+    <t>438200.00</t>
+  </si>
+  <si>
+    <t>841050.00</t>
+  </si>
+  <si>
+    <t>1072500.00</t>
+  </si>
+  <si>
+    <t>1020600.00</t>
+  </si>
+  <si>
+    <t>1569600.00</t>
+  </si>
+  <si>
+    <t>814200.00</t>
+  </si>
+  <si>
+    <t>563800.00</t>
+  </si>
+  <si>
+    <t>152200.00</t>
+  </si>
+  <si>
+    <t>1994767.51</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>650000.00</t>
+  </si>
+  <si>
+    <t>871532.23</t>
+  </si>
+  <si>
+    <t>16850.00</t>
+  </si>
+  <si>
+    <t>318150.00</t>
+  </si>
+  <si>
+    <t>173682.00</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>160084.04</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>372000.00</t>
+  </si>
+  <si>
+    <t>10508.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>24403.50</t>
+  </si>
+  <si>
+    <t>270200.00</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>29600.00</t>
+  </si>
+  <si>
+    <t>1404457.00</t>
+  </si>
+  <si>
+    <t>31600.00</t>
+  </si>
+  <si>
+    <t>10178.00</t>
+  </si>
+  <si>
+    <t>36595.00</t>
+  </si>
+  <si>
+    <t>11625.00</t>
+  </si>
+  <si>
+    <t>229100.00</t>
+  </si>
+  <si>
+    <t>30820.00</t>
   </si>
 </sst>
 </file>
